--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H2">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I2">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J2">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N2">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O2">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P2">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q2">
-        <v>28.98017020083333</v>
+        <v>28.49996004227377</v>
       </c>
       <c r="R2">
-        <v>260.8215318075</v>
+        <v>256.499640380464</v>
       </c>
       <c r="S2">
-        <v>0.001148314519794485</v>
+        <v>0.001809436761401777</v>
       </c>
       <c r="T2">
-        <v>0.001148314519794485</v>
+        <v>0.001809436761401777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H3">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I3">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J3">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.554173</v>
       </c>
       <c r="O3">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P3">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q3">
-        <v>74.41866691858333</v>
+        <v>80.25281837394931</v>
       </c>
       <c r="R3">
-        <v>669.76800226725</v>
+        <v>722.2753653655438</v>
       </c>
       <c r="S3">
-        <v>0.002948776186411129</v>
+        <v>0.005095179065392773</v>
       </c>
       <c r="T3">
-        <v>0.002948776186411129</v>
+        <v>0.005095179065392772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H4">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I4">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J4">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N4">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O4">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P4">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q4">
-        <v>354.7080729956389</v>
+        <v>232.7867259953137</v>
       </c>
       <c r="R4">
-        <v>3192.37265696075</v>
+        <v>2095.080533957824</v>
       </c>
       <c r="S4">
-        <v>0.01405500477348825</v>
+        <v>0.01477941930295697</v>
       </c>
       <c r="T4">
-        <v>0.01405500477348825</v>
+        <v>0.01477941930295697</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H5">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I5">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J5">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N5">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O5">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P5">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q5">
-        <v>68.74153289291667</v>
+        <v>78.07672564900355</v>
       </c>
       <c r="R5">
-        <v>618.67379603625</v>
+        <v>702.6905308410319</v>
       </c>
       <c r="S5">
-        <v>0.002723824594087324</v>
+        <v>0.004957020900718318</v>
       </c>
       <c r="T5">
-        <v>0.002723824594087324</v>
+        <v>0.004957020900718318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.19608333333333</v>
+        <v>43.34730933333333</v>
       </c>
       <c r="H6">
-        <v>120.58825</v>
+        <v>130.041928</v>
       </c>
       <c r="I6">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="J6">
-        <v>0.03460557835761813</v>
+        <v>0.04273139820300816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N6">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O6">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P6">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q6">
-        <v>346.4972592492222</v>
+        <v>253.4347255267413</v>
       </c>
       <c r="R6">
-        <v>3118.475333243</v>
+        <v>2280.912529740672</v>
       </c>
       <c r="S6">
-        <v>0.01372965828383694</v>
+        <v>0.01609034217253833</v>
       </c>
       <c r="T6">
-        <v>0.01372965828383694</v>
+        <v>0.01609034217253833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>270.655327</v>
       </c>
       <c r="I7">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J7">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N7">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O7">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P7">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q7">
-        <v>65.04479036906334</v>
+        <v>59.31676131969177</v>
       </c>
       <c r="R7">
-        <v>585.40311332157</v>
+        <v>533.850851877226</v>
       </c>
       <c r="S7">
-        <v>0.002577344325453138</v>
+        <v>0.003765967683461436</v>
       </c>
       <c r="T7">
-        <v>0.002577344325453138</v>
+        <v>0.003765967683461436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>270.655327</v>
       </c>
       <c r="I8">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J8">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.554173</v>
       </c>
       <c r="O8">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P8">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q8">
         <v>167.0296121699523</v>
@@ -948,10 +948,10 @@
         <v>1503.266509529571</v>
       </c>
       <c r="S8">
-        <v>0.006618405881028353</v>
+        <v>0.01060455944691496</v>
       </c>
       <c r="T8">
-        <v>0.006618405881028353</v>
+        <v>0.01060455944691496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>270.655327</v>
       </c>
       <c r="I9">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J9">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N9">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O9">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P9">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q9">
-        <v>796.1275620649152</v>
+        <v>484.4973341638017</v>
       </c>
       <c r="R9">
-        <v>7165.148058584237</v>
+        <v>4360.476007474215</v>
       </c>
       <c r="S9">
-        <v>0.03154587543110562</v>
+        <v>0.03076029881925413</v>
       </c>
       <c r="T9">
-        <v>0.03154587543110562</v>
+        <v>0.03076029881925412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>270.655327</v>
       </c>
       <c r="I10">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J10">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N10">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O10">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P10">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q10">
-        <v>154.2875202485617</v>
+        <v>162.5005260735626</v>
       </c>
       <c r="R10">
-        <v>1388.587682237055</v>
+        <v>1462.504734662063</v>
       </c>
       <c r="S10">
-        <v>0.006113511359550761</v>
+        <v>0.01031701185505148</v>
       </c>
       <c r="T10">
-        <v>0.006113511359550761</v>
+        <v>0.01031701185505148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>270.655327</v>
       </c>
       <c r="I11">
-        <v>0.07767078572253315</v>
+        <v>0.0889365509391893</v>
       </c>
       <c r="J11">
-        <v>0.07767078572253315</v>
+        <v>0.08893655093918929</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N11">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O11">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P11">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q11">
-        <v>777.6987310679276</v>
+        <v>527.4718666936053</v>
       </c>
       <c r="R11">
-        <v>6999.288579611349</v>
+        <v>4747.246800242448</v>
       </c>
       <c r="S11">
-        <v>0.03081564872539527</v>
+        <v>0.03348871313450729</v>
       </c>
       <c r="T11">
-        <v>0.03081564872539528</v>
+        <v>0.03348871313450729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H12">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I12">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J12">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N12">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O12">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P12">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q12">
-        <v>395.7465160642134</v>
+        <v>259.5078299009993</v>
       </c>
       <c r="R12">
-        <v>3561.71864457792</v>
+        <v>2335.570469108994</v>
       </c>
       <c r="S12">
-        <v>0.01568111806815925</v>
+        <v>0.01647591809244533</v>
       </c>
       <c r="T12">
-        <v>0.01568111806815925</v>
+        <v>0.01647591809244532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H13">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I13">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J13">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.554173</v>
       </c>
       <c r="O13">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P13">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q13">
-        <v>1016.244140702998</v>
+        <v>730.7461031093109</v>
       </c>
       <c r="R13">
-        <v>9146.197266326977</v>
+        <v>6576.714927983799</v>
       </c>
       <c r="S13">
-        <v>0.04026780706732239</v>
+        <v>0.04639441108885112</v>
       </c>
       <c r="T13">
-        <v>0.04026780706732238</v>
+        <v>0.04639441108885112</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H14">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I14">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J14">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N14">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O14">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P14">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q14">
-        <v>4843.811583406031</v>
+        <v>2119.651325938589</v>
       </c>
       <c r="R14">
-        <v>43594.30425065428</v>
+        <v>19076.8619334473</v>
       </c>
       <c r="S14">
-        <v>0.1919319014977324</v>
+        <v>0.1345747511511707</v>
       </c>
       <c r="T14">
-        <v>0.1919319014977324</v>
+        <v>0.1345747511511707</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H15">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I15">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J15">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N15">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O15">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P15">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q15">
-        <v>938.7185086477868</v>
+        <v>710.9315805669497</v>
       </c>
       <c r="R15">
-        <v>8448.46657783008</v>
+        <v>6398.384225102547</v>
       </c>
       <c r="S15">
-        <v>0.0371959200380777</v>
+        <v>0.04513640492166381</v>
       </c>
       <c r="T15">
-        <v>0.03719592003807769</v>
+        <v>0.0451364049216638</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>548.9084373333334</v>
+        <v>394.701121</v>
       </c>
       <c r="H16">
-        <v>1646.725312</v>
+        <v>1184.103363</v>
       </c>
       <c r="I16">
-        <v>0.4725657915915454</v>
+        <v>0.3890929110023202</v>
       </c>
       <c r="J16">
-        <v>0.4725657915915453</v>
+        <v>0.3890929110023201</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N16">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O16">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P16">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q16">
-        <v>4731.686605820389</v>
+        <v>2307.662731647568</v>
       </c>
       <c r="R16">
-        <v>42585.17945238349</v>
+        <v>20768.96458482811</v>
       </c>
       <c r="S16">
-        <v>0.1874890449202536</v>
+        <v>0.1465114257481892</v>
       </c>
       <c r="T16">
-        <v>0.1874890449202537</v>
+        <v>0.1465114257481892</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H17">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I17">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J17">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N17">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O17">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P17">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q17">
-        <v>5.416143171323333</v>
+        <v>5.131212861325777</v>
       </c>
       <c r="R17">
-        <v>48.74528854191</v>
+        <v>46.180915751932</v>
       </c>
       <c r="S17">
-        <v>0.00021461005238463</v>
+        <v>0.0003257760771625179</v>
       </c>
       <c r="T17">
-        <v>0.00021461005238463</v>
+        <v>0.0003257760771625179</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H18">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I18">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J18">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.554173</v>
       </c>
       <c r="O18">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P18">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q18">
-        <v>13.90820522643033</v>
+        <v>14.44894284719133</v>
       </c>
       <c r="R18">
-        <v>125.173847037873</v>
+        <v>130.040485624722</v>
       </c>
       <c r="S18">
-        <v>0.0005511007663209739</v>
+        <v>0.0009173503510994888</v>
       </c>
       <c r="T18">
-        <v>0.0005511007663209738</v>
+        <v>0.0009173503510994888</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H19">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I19">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J19">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N19">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O19">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P19">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q19">
-        <v>66.29187109858123</v>
+        <v>41.91157603734577</v>
       </c>
       <c r="R19">
-        <v>596.6268398872311</v>
+        <v>377.204184336112</v>
       </c>
       <c r="S19">
-        <v>0.002626758835414164</v>
+        <v>0.002660928166136787</v>
       </c>
       <c r="T19">
-        <v>0.002626758835414164</v>
+        <v>0.002660928166136787</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H20">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I20">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J20">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N20">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O20">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P20">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q20">
-        <v>12.84719797655167</v>
+        <v>14.05715300042955</v>
       </c>
       <c r="R20">
-        <v>115.624781788965</v>
+        <v>126.514377003866</v>
       </c>
       <c r="S20">
-        <v>0.0005090592592421833</v>
+        <v>0.0008924759670504167</v>
       </c>
       <c r="T20">
-        <v>0.0005090592592421832</v>
+        <v>0.0008924759670504168</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.512300333333333</v>
+        <v>7.804371333333333</v>
       </c>
       <c r="H21">
-        <v>22.536901</v>
+        <v>23.413114</v>
       </c>
       <c r="I21">
-        <v>0.006467483303666671</v>
+        <v>0.007693480963358413</v>
       </c>
       <c r="J21">
-        <v>0.00646748330366667</v>
+        <v>0.007693480963358412</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N21">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O21">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P21">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q21">
-        <v>64.75734102179156</v>
+        <v>45.62909987243733</v>
       </c>
       <c r="R21">
-        <v>582.8160691961241</v>
+        <v>410.661898851936</v>
       </c>
       <c r="S21">
-        <v>0.00256595439030472</v>
+        <v>0.002896950401909203</v>
       </c>
       <c r="T21">
-        <v>0.00256595439030472</v>
+        <v>0.002896950401909203</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H22">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I22">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J22">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N22">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O22">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P22">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q22">
-        <v>342.2545376799534</v>
+        <v>314.5001802348496</v>
       </c>
       <c r="R22">
-        <v>3080.290839119581</v>
+        <v>2830.501622113646</v>
       </c>
       <c r="S22">
-        <v>0.01356154406132984</v>
+        <v>0.01996733282223297</v>
       </c>
       <c r="T22">
-        <v>0.01356154406132984</v>
+        <v>0.01996733282223297</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H23">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I23">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J23">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.554173</v>
       </c>
       <c r="O23">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P23">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q23">
-        <v>878.8811889119195</v>
+        <v>885.5986396305157</v>
       </c>
       <c r="R23">
-        <v>7909.930700207276</v>
+        <v>7970.387756674641</v>
       </c>
       <c r="S23">
-        <v>0.03482491729371474</v>
+        <v>0.05622585898429262</v>
       </c>
       <c r="T23">
-        <v>0.03482491729371474</v>
+        <v>0.05622585898429261</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H24">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I24">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J24">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N24">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O24">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P24">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q24">
-        <v>4189.086768406165</v>
+        <v>2568.82701495766</v>
       </c>
       <c r="R24">
-        <v>37701.78091565549</v>
+        <v>23119.44313461894</v>
       </c>
       <c r="S24">
-        <v>0.1659889892814168</v>
+        <v>0.1630925105737638</v>
       </c>
       <c r="T24">
-        <v>0.1659889892814168</v>
+        <v>0.1630925105737638</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H25">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I25">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J25">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N25">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O25">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P25">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q25">
-        <v>811.8344853267968</v>
+        <v>861.5852180963083</v>
       </c>
       <c r="R25">
-        <v>7306.510367941171</v>
+        <v>7754.266962866774</v>
       </c>
       <c r="S25">
-        <v>0.03216824886500622</v>
+        <v>0.05470126850674171</v>
       </c>
       <c r="T25">
-        <v>0.03216824886500622</v>
+        <v>0.0547012685067417</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>474.7139793333334</v>
+        <v>478.3423056666667</v>
       </c>
       <c r="H26">
-        <v>1424.141938</v>
+        <v>1435.026917</v>
       </c>
       <c r="I26">
-        <v>0.4086903610246367</v>
+        <v>0.4715456588921241</v>
       </c>
       <c r="J26">
-        <v>0.4086903610246367</v>
+        <v>0.471545658892124</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N26">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O26">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P26">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q26">
-        <v>4092.117418561724</v>
+        <v>2796.679951049179</v>
       </c>
       <c r="R26">
-        <v>36829.05676705552</v>
+        <v>25170.11955944261</v>
       </c>
       <c r="S26">
-        <v>0.1621466615231691</v>
+        <v>0.177558688005093</v>
       </c>
       <c r="T26">
-        <v>0.1621466615231691</v>
+        <v>0.177558688005093</v>
       </c>
     </row>
   </sheetData>
